--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.021121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.021121.xlsx_with_dialog_acts.xlsx
@@ -515,12 +515,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -799,12 +799,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1199,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1919,12 +1919,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2397,12 +2397,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3277,12 +3277,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3317,12 +3317,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4961,12 +4961,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5721,12 +5721,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5801,12 +5801,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6201,12 +6201,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7325,12 +7325,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7525,12 +7525,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8045,12 +8045,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8245,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8405,12 +8405,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9049,12 +9049,12 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9089,12 +9089,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9289,12 +9289,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9533,12 +9533,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9693,12 +9693,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9733,12 +9733,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10053,12 +10053,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10213,12 +10213,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10373,12 +10373,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10413,12 +10413,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10693,12 +10693,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10853,12 +10853,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11053,12 +11053,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11533,12 +11533,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11693,12 +11693,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11733,12 +11733,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11813,12 +11813,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12627,12 +12627,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12665,12 +12665,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12779,12 +12779,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13273,12 +13273,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13387,12 +13387,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13615,12 +13615,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14529,12 +14529,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
